--- a/output_file/June Y=0 90 degree/example.xlsx
+++ b/output_file/June Y=0 90 degree/example.xlsx
@@ -40,31 +40,31 @@
     <t>MetalNumber</t>
   </si>
   <si>
+    <t>Control</t>
+  </si>
+  <si>
     <t>LC Steel</t>
   </si>
   <si>
+    <t>416 SS</t>
+  </si>
+  <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>6061 Al</t>
+  </si>
+  <si>
+    <t>Ti Grade 5</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
     <t>Validity_Check_Value_of_Translation_Error</t>
   </si>
   <si>
     <t>Validity_Check_Value_of_Rotation_Error</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>416 SS</t>
-  </si>
-  <si>
-    <t>304 SS</t>
-  </si>
-  <si>
-    <t>6061 Al</t>
-  </si>
-  <si>
-    <t>Ti Grade 5</t>
-  </si>
-  <si>
-    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -413,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1.1764180270163276E-6</v>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2.4037290626278464E-6</v>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>4.7430082715368124E-6</v>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1.3577646894917563E-6</v>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2.5269112703439664E-6</v>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1.0015027080687951E-6</v>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>3.3017023598061334E-6</v>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>1.1764180270163276E-6</v>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>2.0776531428105052E-6</v>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>3.5072702529884472E-6</v>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>3.1165359883408649E-6</v>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>5.1375673733102401E-6</v>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>3.6446812295075986E-7</v>
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2.1913802358796313E-6</v>
